--- a/biology/Botanique/Mesangiospermae/Mesangiospermae.xlsx
+++ b/biology/Botanique/Mesangiospermae/Mesangiospermae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Mésangiospermes (Mesangiospermae) forment un groupe de plantes à fleurs (Angiospermes). Les Mésangiospermes contiennent 99,95 % des Angiospermes, sachant qu'il y a 175 espèces hors de ce groupe et à peu près 350.000 qui sont dedans.
 Les groupes d'Angiospermes en dehors des Mésangiospermes sont les ordres Amborellales, Nymphaeales et Austrobaileyales. Ils sont dénommés Angiospermes basales et constituent un groupe paraphylétique.
@@ -512,9 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon classification phylogénétique APG III (2009)[1], la composition et l'emplacement des Mésangiospermes sur l'arbre phylogénétique du vivant sont détaillés par le cladogramme suivant[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon classification phylogénétique APG III (2009), la composition et l'emplacement des Mésangiospermes sur l'arbre phylogénétique du vivant sont détaillés par le cladogramme suivant :
 clade des Angiospermes (Angiospermae, en anglais « angiosperms »)
 Amborellales
 Nymphaeales
@@ -526,7 +540,7 @@
 Ceratophyllales
 clade des Eudicotylédones ou Dicotylédones vraies (en anglais « eudicots » ou « eudicotyledons »)
 Remarque :
-La classification phylogénétique APG III (2009)[1] envisage de créer un clade intermédiaire et frère des Dicotylédones vraies afin d'y inclure l'ordre des Ceratophyllales.</t>
+La classification phylogénétique APG III (2009) envisage de créer un clade intermédiaire et frère des Dicotylédones vraies afin d'y inclure l'ordre des Ceratophyllales.</t>
         </is>
       </c>
     </row>
@@ -554,9 +568,11 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (4 mars 2019)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (4 mars 2019) :
 classe des Liliopsida
 ordre des Buxales Takht. ex Reveal, 1995
 ordre des Ceratophyllales
@@ -569,7 +585,7 @@
 ordre des Laurales Juss. ex Bercht. &amp; J.Presl, 1820
 ordre des Magnoliales
 ordre des Piperales Bercht. &amp; J.Presl, 1820
-Selon NCBI  (4 mars 2019)[3] :
+Selon NCBI  (4 mars 2019) :
 ordre des Acorales Mart., 1835
 ordre des Alismatales R.Br. ex Bercht. &amp; J.Presl, 1820
 ordre des Apiales Nakai, 1930
